--- a/inst/extdata/RocData.xlsx
+++ b/inst/extdata/RocData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="340" windowWidth="25360" windowHeight="15380"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="16">
   <si>
     <t>CaseID</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Paradigm</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
   <si>
     <t>0,1</t>
@@ -120,8 +117,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -136,11 +135,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E115"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -484,7 +485,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,11 +504,8 @@
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -521,16 +519,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -544,11 +539,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -562,11 +559,11 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -580,11 +577,11 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -598,11 +595,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -616,11 +613,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -634,11 +631,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -652,11 +649,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -670,11 +667,11 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -688,11 +685,11 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -706,11 +703,11 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -724,11 +721,11 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -742,10 +739,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -759,10 +756,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -776,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -793,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -810,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -827,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -844,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -861,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -878,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -895,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -912,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -929,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -946,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -963,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -980,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -997,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1014,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1031,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1048,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1065,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1082,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1099,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1116,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1133,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1150,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1167,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1184,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1201,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1218,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1235,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1252,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1269,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1286,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1303,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1320,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1337,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1354,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1371,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1388,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1405,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1422,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1439,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1456,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1473,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1490,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1507,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1524,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1541,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1558,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1575,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1592,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1609,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1626,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1643,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1660,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1677,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1694,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1711,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1728,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1745,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1762,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1779,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1796,7 +1793,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1813,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1830,7 +1827,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1847,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1864,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1881,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1898,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1915,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1932,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1949,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1966,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1983,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2000,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2017,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2034,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2051,7 +2048,7 @@
         <v>11</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2068,7 +2065,7 @@
         <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2085,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2102,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2119,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2136,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2153,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2170,7 +2167,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2187,7 +2184,7 @@
         <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2204,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2221,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2238,7 +2235,7 @@
         <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2255,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2272,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2289,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2306,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2323,7 +2320,7 @@
         <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2340,7 +2337,7 @@
         <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2357,7 +2354,7 @@
         <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2374,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2391,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2408,7 +2405,7 @@
         <v>11</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2425,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2442,7 +2439,7 @@
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2459,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
